--- a/tests/outputs/recent-collabs/scopatz_nsf.xlsx
+++ b/tests/outputs/recent-collabs/scopatz_nsf.xlsx
@@ -195,7 +195,7 @@
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
@@ -302,10 +302,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
       <protection hidden="0" locked="0"/>
     </xf>
@@ -2059,23 +2055,11 @@
       </c>
     </row>
     <row customFormat="1" r="37" s="18">
-      <c r="A37" s="34" t="inlineStr">
-        <is>
-          <t>A:</t>
-        </is>
-      </c>
-      <c r="B37" s="34" t="inlineStr">
-        <is>
-          <t>Scopatz, Anthony</t>
-        </is>
-      </c>
-      <c r="C37" s="34" t="inlineStr">
-        <is>
-          <t>The University of South Carolina</t>
-        </is>
-      </c>
-      <c r="D37" s="34" t="n"/>
-      <c r="E37" s="34" t="n"/>
+      <c r="A37" s="11" t="n"/>
+      <c r="B37" s="11" t="n"/>
+      <c r="C37" s="11" t="n"/>
+      <c r="D37" s="11" t="n"/>
+      <c r="E37" s="11" t="n"/>
     </row>
     <row customFormat="1" r="38" s="13">
       <c r="A38" s="10" t="n"/>
